--- a/conferences/UbiComp 2016/UbiComp 2016.xlsx
+++ b/conferences/UbiComp 2016/UbiComp 2016.xlsx
@@ -175,12 +175,132 @@
         </r>
       </text>
     </comment>
+    <comment ref="B83" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mark Rucker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Seems interesting but I can't find anything out about the authors</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B84" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mark Rucker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+I think I have easy conversation topics to break in with these authors.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B86" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mark Rucker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+These authors are doing a separate presentation that I'm more interested in.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B93" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mark Rucker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+While power saving might be helpful for research applications I build it isn't something I'm necessarily interested in.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B94" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mark Rucker:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+While power saving might be helpful for research applications I build it isn't something I'm necessarily interested in.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="1224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="1238">
   <si>
     <t>Title</t>
   </si>
@@ -3677,18 +3797,12 @@
     <t>Human Activity Recognition</t>
   </si>
   <si>
-    <t>Department</t>
-  </si>
-  <si>
     <t>University of Mannheim</t>
   </si>
   <si>
     <t>Data and Web Science Group</t>
   </si>
   <si>
-    <t>Mathematics and Computer Science</t>
-  </si>
-  <si>
     <t>University of New South Wales</t>
   </si>
   <si>
@@ -3852,13 +3966,61 @@
   </si>
   <si>
     <t>HCI, Usability, Information Visualization</t>
+  </si>
+  <si>
+    <t>Dartmouth College</t>
+  </si>
+  <si>
+    <t>DartNets</t>
+  </si>
+  <si>
+    <t>UC, Mobile Sensing, Behavioral Modeling, Context Awareness</t>
+  </si>
+  <si>
+    <t>Applied Machine Learning, Affective Computing</t>
+  </si>
+  <si>
+    <t>Lab/Group</t>
+  </si>
+  <si>
+    <t>Associate Prof</t>
+  </si>
+  <si>
+    <t>Lecturer?</t>
+  </si>
+  <si>
+    <t>Assistant Professor</t>
+  </si>
+  <si>
+    <t>Unimore</t>
+  </si>
+  <si>
+    <t>Agent Group</t>
+  </si>
+  <si>
+    <t>Mobile Sensor Data To Knowledge</t>
+  </si>
+  <si>
+    <t>Research Assistant</t>
+  </si>
+  <si>
+    <t>University of Memphis</t>
+  </si>
+  <si>
+    <t>Troy University</t>
+  </si>
+  <si>
+    <t>7 years as professional developer</t>
+  </si>
+  <si>
+    <t>Mobile Health, UC, Machine Learning</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3886,6 +4048,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3952,7 +4127,7 @@
     </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="16:00"/>
+        <filter val="14:00"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3966,7 +4141,7 @@
     <tableColumn id="6" name="Conference"/>
     <tableColumn id="9" name="Comments"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -3982,7 +4157,7 @@
     <tableColumn id="3" name="Last"/>
     <tableColumn id="9" name="Position"/>
     <tableColumn id="2" name="Institution"/>
-    <tableColumn id="7" name="Department"/>
+    <tableColumn id="7" name="Lab/Group"/>
     <tableColumn id="6" name="Research Interests"/>
     <tableColumn id="8" name="Questions"/>
   </tableColumns>
@@ -4255,8 +4430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F124" sqref="F124"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4294,7 +4469,7 @@
         <v>55</v>
       </c>
       <c r="I2" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="3" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
@@ -4597,7 +4772,7 @@
         <v>56</v>
       </c>
       <c r="I15" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="16" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
@@ -6143,7 +6318,7 @@
     </row>
     <row r="83" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" s="1">
         <v>42629</v>
@@ -6174,7 +6349,7 @@
       <c r="D84" s="2">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="3" t="s">
         <v>195</v>
       </c>
       <c r="F84" t="s">
@@ -6220,7 +6395,7 @@
       <c r="D86" s="2">
         <v>0.45833333333333298</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="3" t="s">
         <v>199</v>
       </c>
       <c r="F86" t="s">
@@ -6327,7 +6502,7 @@
     </row>
     <row r="91" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" s="1">
         <v>42629</v>
@@ -6350,7 +6525,7 @@
     </row>
     <row r="92" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" s="1">
         <v>42629</v>
@@ -6373,7 +6548,7 @@
     </row>
     <row r="93" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" s="1">
         <v>42629</v>
@@ -6396,7 +6571,7 @@
     </row>
     <row r="94" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" s="1">
         <v>42629</v>
@@ -6463,7 +6638,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="97" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" t="b">
         <v>1</v>
       </c>
@@ -6486,7 +6661,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="98" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" t="b">
         <v>1</v>
       </c>
@@ -6509,7 +6684,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="99" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" t="b">
         <v>0</v>
       </c>
@@ -6532,7 +6707,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="100" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" t="b">
         <v>1</v>
       </c>
@@ -6555,7 +6730,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="101" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" t="b">
         <v>1</v>
       </c>
@@ -6578,7 +6753,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="102" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" t="b">
         <v>1</v>
       </c>
@@ -6601,7 +6776,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="103" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" t="b">
         <v>0</v>
       </c>
@@ -6624,7 +6799,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="104" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104" t="b">
         <v>0</v>
       </c>
@@ -6647,7 +6822,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="105" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105" t="b">
         <v>1</v>
       </c>
@@ -6670,7 +6845,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="106" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" t="b">
         <v>0</v>
       </c>
@@ -6693,7 +6868,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="107" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" t="b">
         <v>1</v>
       </c>
@@ -6716,7 +6891,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108" t="b">
         <v>1</v>
       </c>
@@ -6739,7 +6914,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B109" t="b">
         <v>1</v>
       </c>
@@ -6762,7 +6937,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B110" t="b">
         <v>0</v>
       </c>
@@ -6785,7 +6960,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B111" t="b">
         <v>0</v>
       </c>
@@ -6808,7 +6983,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B112" t="b">
         <v>1</v>
       </c>
@@ -6831,7 +7006,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B113" t="b">
         <v>1</v>
       </c>
@@ -6854,7 +7029,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B114" t="b">
         <v>1</v>
       </c>
@@ -6877,7 +7052,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B115" t="b">
         <v>0</v>
       </c>
@@ -6900,7 +7075,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B116" t="b">
         <v>0</v>
       </c>
@@ -6923,7 +7098,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B117" t="b">
         <v>1</v>
       </c>
@@ -6946,7 +7121,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B118" t="b">
         <v>1</v>
       </c>
@@ -6969,7 +7144,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B119" t="b">
         <v>1</v>
       </c>
@@ -6992,7 +7167,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B120" s="2" t="b">
         <v>0</v>
       </c>
@@ -7039,11 +7214,13 @@
     <hyperlink ref="E63" r:id="rId4"/>
     <hyperlink ref="E64" r:id="rId5"/>
     <hyperlink ref="E77" r:id="rId6"/>
+    <hyperlink ref="E86" r:id="rId7"/>
+    <hyperlink ref="E84" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId7"/>
+  <legacyDrawing r:id="rId9"/>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7052,8 +7229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I530"/>
   <sheetViews>
-    <sheetView topLeftCell="A218" workbookViewId="0">
-      <selection activeCell="F251" sqref="F251"/>
+    <sheetView topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="F172" sqref="F172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7063,7 +7240,7 @@
     <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" customWidth="1"/>
     <col min="6" max="7" width="30.28515625" customWidth="1"/>
-    <col min="8" max="8" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="57" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="125.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7078,19 +7255,19 @@
         <v>274</v>
       </c>
       <c r="E2" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="F2" t="s">
         <v>271</v>
       </c>
       <c r="G2" t="s">
-        <v>1165</v>
+        <v>1226</v>
       </c>
       <c r="H2" t="s">
         <v>1161</v>
       </c>
       <c r="I2" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
@@ -7149,13 +7326,13 @@
         <v>750</v>
       </c>
       <c r="E9" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="F9" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="H9" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
@@ -7223,10 +7400,10 @@
         <v>824</v>
       </c>
       <c r="F16" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="G16" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -7245,16 +7422,16 @@
         <v>757</v>
       </c>
       <c r="E18" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="F18" t="s">
+        <v>1209</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1210</v>
+      </c>
+      <c r="H18" t="s">
         <v>1211</v>
-      </c>
-      <c r="G18" t="s">
-        <v>1212</v>
-      </c>
-      <c r="H18" t="s">
-        <v>1213</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -7280,6 +7457,18 @@
       <c r="D21" t="s">
         <v>872</v>
       </c>
+      <c r="E21" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1175</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1175</v>
+      </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
@@ -7386,16 +7575,16 @@
         <v>836</v>
       </c>
       <c r="E33" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="F33" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1219</v>
+      </c>
+      <c r="H33" t="s">
         <v>1220</v>
-      </c>
-      <c r="G33" t="s">
-        <v>1221</v>
-      </c>
-      <c r="H33" t="s">
-        <v>1222</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -7831,11 +8020,11 @@
       <c r="D85" t="s">
         <v>276</v>
       </c>
+      <c r="E85" t="s">
+        <v>1227</v>
+      </c>
       <c r="F85" t="s">
         <v>1163</v>
-      </c>
-      <c r="G85" t="s">
-        <v>1168</v>
       </c>
       <c r="H85" t="s">
         <v>1162</v>
@@ -7932,7 +8121,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>1009</v>
       </c>
@@ -7940,7 +8129,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>666</v>
       </c>
@@ -7948,7 +8137,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>1158</v>
       </c>
@@ -7956,7 +8145,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>810</v>
       </c>
@@ -7964,7 +8153,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>1112</v>
       </c>
@@ -7972,7 +8161,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>510</v>
       </c>
@@ -7980,7 +8169,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>730</v>
       </c>
@@ -7988,7 +8177,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>922</v>
       </c>
@@ -7996,7 +8185,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>1013</v>
       </c>
@@ -8004,7 +8193,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>499</v>
       </c>
@@ -8012,7 +8201,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>727</v>
       </c>
@@ -8023,7 +8212,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>727</v>
       </c>
@@ -8031,7 +8220,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>970</v>
       </c>
@@ -8039,7 +8228,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>1096</v>
       </c>
@@ -8047,7 +8236,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>372</v>
       </c>
@@ -8055,7 +8244,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>413</v>
       </c>
@@ -8063,13 +8252,10 @@
         <v>414</v>
       </c>
       <c r="E112" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="F112" t="s">
-        <v>1192</v>
-      </c>
-      <c r="G112" t="s">
-        <v>1186</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.25">
@@ -8192,13 +8378,13 @@
         <v>286</v>
       </c>
       <c r="F127" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="G127" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="H127" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="128" spans="2:8" x14ac:dyDescent="0.25">
@@ -8455,13 +8641,13 @@
         <v>358</v>
       </c>
       <c r="F158" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="G158" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="H158" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="159" spans="2:8" x14ac:dyDescent="0.25">
@@ -8480,7 +8666,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>501</v>
       </c>
@@ -8488,7 +8674,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>296</v>
       </c>
@@ -8496,7 +8682,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>296</v>
       </c>
@@ -8504,7 +8690,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>1078</v>
       </c>
@@ -8512,7 +8698,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>580</v>
       </c>
@@ -8520,7 +8706,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>1005</v>
       </c>
@@ -8531,7 +8717,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>374</v>
       </c>
@@ -8542,7 +8728,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>1028</v>
       </c>
@@ -8550,7 +8736,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>281</v>
       </c>
@@ -8558,7 +8744,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>379</v>
       </c>
@@ -8566,15 +8752,30 @@
         <v>380</v>
       </c>
     </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
         <v>890</v>
       </c>
       <c r="D171" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E171" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F171" t="s">
+        <v>1234</v>
+      </c>
+      <c r="G171" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H171" t="s">
+        <v>1237</v>
+      </c>
+      <c r="I171" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
         <v>1029</v>
       </c>
@@ -8582,7 +8783,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
         <v>1029</v>
       </c>
@@ -8590,7 +8791,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
         <v>807</v>
       </c>
@@ -8598,7 +8799,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
         <v>999</v>
       </c>
@@ -8606,7 +8807,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
         <v>440</v>
       </c>
@@ -8753,16 +8954,16 @@
         <v>822</v>
       </c>
       <c r="E193" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="F193" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="G193" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="H193" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="194" spans="2:8" x14ac:dyDescent="0.25">
@@ -9112,6 +9313,12 @@
       <c r="D235" t="s">
         <v>889</v>
       </c>
+      <c r="E235" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F235" t="s">
+        <v>1235</v>
+      </c>
     </row>
     <row r="236" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
@@ -9129,16 +9336,16 @@
         <v>838</v>
       </c>
       <c r="E237" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="F237" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="G237" t="s">
+        <v>1219</v>
+      </c>
+      <c r="H237" t="s">
         <v>1221</v>
-      </c>
-      <c r="H237" t="s">
-        <v>1223</v>
       </c>
     </row>
     <row r="238" spans="2:8" x14ac:dyDescent="0.25">
@@ -9368,17 +9575,17 @@
       <c r="D264" t="s">
         <v>284</v>
       </c>
+      <c r="E264" t="s">
+        <v>1228</v>
+      </c>
       <c r="F264" t="s">
-        <v>1169</v>
-      </c>
-      <c r="G264" t="s">
+        <v>1167</v>
+      </c>
+      <c r="H264" t="s">
+        <v>1173</v>
+      </c>
+      <c r="I264" t="s">
         <v>1170</v>
-      </c>
-      <c r="H264" t="s">
-        <v>1175</v>
-      </c>
-      <c r="I264" t="s">
-        <v>1172</v>
       </c>
     </row>
     <row r="265" spans="2:9" x14ac:dyDescent="0.25">
@@ -9480,16 +9687,16 @@
         <v>416</v>
       </c>
       <c r="E276" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="F276" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="G276" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="H276" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="277" spans="2:8" x14ac:dyDescent="0.25">
@@ -9567,13 +9774,13 @@
         <v>452</v>
       </c>
       <c r="F285" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="G285" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="H285" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="286" spans="2:8" x14ac:dyDescent="0.25">
@@ -9600,7 +9807,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="289" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
         <v>1037</v>
       </c>
@@ -9611,7 +9818,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="290" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
         <v>717</v>
       </c>
@@ -9619,7 +9826,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="291" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
         <v>789</v>
       </c>
@@ -9630,7 +9837,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="292" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
         <v>1072</v>
       </c>
@@ -9638,7 +9845,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="293" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B293" t="s">
         <v>690</v>
       </c>
@@ -9646,7 +9853,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="294" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B294" t="s">
         <v>809</v>
       </c>
@@ -9654,7 +9861,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="295" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
         <v>512</v>
       </c>
@@ -9662,7 +9869,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="296" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
         <v>361</v>
       </c>
@@ -9670,7 +9877,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="297" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
         <v>930</v>
       </c>
@@ -9678,7 +9885,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="298" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
         <v>930</v>
       </c>
@@ -9686,7 +9893,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="299" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
         <v>817</v>
       </c>
@@ -9694,7 +9901,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="300" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B300" t="s">
         <v>919</v>
       </c>
@@ -9704,8 +9911,20 @@
       <c r="D300" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="301" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E300" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F300" t="s">
+        <v>1190</v>
+      </c>
+      <c r="G300" t="s">
+        <v>1217</v>
+      </c>
+      <c r="H300" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="301" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
         <v>513</v>
       </c>
@@ -9713,7 +9932,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
         <v>1061</v>
       </c>
@@ -9721,7 +9940,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="303" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
         <v>1024</v>
       </c>
@@ -9729,7 +9948,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="304" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
         <v>1142</v>
       </c>
@@ -9864,16 +10083,16 @@
         <v>753</v>
       </c>
       <c r="E318" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F318" t="s">
+        <v>1205</v>
+      </c>
+      <c r="G318" t="s">
         <v>1206</v>
       </c>
-      <c r="F318" t="s">
+      <c r="H318" t="s">
         <v>1207</v>
-      </c>
-      <c r="G318" t="s">
-        <v>1208</v>
-      </c>
-      <c r="H318" t="s">
-        <v>1209</v>
       </c>
     </row>
     <row r="319" spans="2:8" x14ac:dyDescent="0.25">
@@ -9894,6 +10113,18 @@
       <c r="D320" t="s">
         <v>876</v>
       </c>
+      <c r="E320" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F320" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G320" t="s">
+        <v>1231</v>
+      </c>
+      <c r="H320" t="s">
+        <v>1175</v>
+      </c>
     </row>
     <row r="321" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B321" t="s">
@@ -10126,16 +10357,16 @@
         <v>289</v>
       </c>
       <c r="F347" t="s">
+        <v>1172</v>
+      </c>
+      <c r="G347" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H347" t="s">
+        <v>1173</v>
+      </c>
+      <c r="I347" t="s">
         <v>1174</v>
-      </c>
-      <c r="G347" t="s">
-        <v>1170</v>
-      </c>
-      <c r="H347" t="s">
-        <v>1175</v>
-      </c>
-      <c r="I347" t="s">
-        <v>1176</v>
       </c>
     </row>
     <row r="348" spans="2:9" x14ac:dyDescent="0.25">
@@ -10178,7 +10409,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="353" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B353" t="s">
         <v>997</v>
       </c>
@@ -10186,7 +10417,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="354" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B354" t="s">
         <v>763</v>
       </c>
@@ -10194,7 +10425,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="355" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B355" t="s">
         <v>882</v>
       </c>
@@ -10202,7 +10433,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="356" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B356" t="s">
         <v>387</v>
       </c>
@@ -10210,7 +10441,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="357" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B357" t="s">
         <v>913</v>
       </c>
@@ -10218,7 +10449,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="358" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B358" t="s">
         <v>913</v>
       </c>
@@ -10226,7 +10457,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="359" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B359" t="s">
         <v>660</v>
       </c>
@@ -10234,7 +10465,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="360" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B360" t="s">
         <v>1109</v>
       </c>
@@ -10245,7 +10476,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="361" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B361" t="s">
         <v>967</v>
       </c>
@@ -10253,7 +10484,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="362" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B362" t="s">
         <v>389</v>
       </c>
@@ -10261,7 +10492,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="363" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B363" t="s">
         <v>700</v>
       </c>
@@ -10269,7 +10500,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="364" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B364" t="s">
         <v>1106</v>
       </c>
@@ -10277,15 +10508,27 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="365" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B365" t="s">
         <v>918</v>
       </c>
       <c r="D365" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="366" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E365" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F365" t="s">
+        <v>1222</v>
+      </c>
+      <c r="G365" t="s">
+        <v>1223</v>
+      </c>
+      <c r="H365" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="366" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B366" t="s">
         <v>795</v>
       </c>
@@ -10293,7 +10536,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="367" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B367" t="s">
         <v>805</v>
       </c>
@@ -10301,7 +10544,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="368" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B368" t="s">
         <v>459</v>
       </c>
@@ -10320,16 +10563,16 @@
         <v>412</v>
       </c>
       <c r="E369" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="F369" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="G369" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="H369" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="370" spans="2:8" x14ac:dyDescent="0.25">
@@ -10364,13 +10607,13 @@
         <v>746</v>
       </c>
       <c r="E373" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="F373" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="H373" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="374" spans="2:8" x14ac:dyDescent="0.25">
@@ -10473,13 +10716,13 @@
         <v>295</v>
       </c>
       <c r="F384" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="G384" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H384" t="s">
         <v>1181</v>
-      </c>
-      <c r="H384" t="s">
-        <v>1183</v>
       </c>
     </row>
     <row r="385" spans="2:8" x14ac:dyDescent="0.25">
@@ -10613,19 +10856,19 @@
         <v>738</v>
       </c>
       <c r="E400" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F400" t="s">
+        <v>1209</v>
+      </c>
+      <c r="G400" t="s">
+        <v>1213</v>
+      </c>
+      <c r="H400" t="s">
         <v>1214</v>
       </c>
-      <c r="F400" t="s">
-        <v>1211</v>
-      </c>
-      <c r="G400" t="s">
-        <v>1215</v>
-      </c>
-      <c r="H400" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="401" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="401" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B401" t="s">
         <v>736</v>
       </c>
@@ -10636,7 +10879,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="402" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B402" t="s">
         <v>1076</v>
       </c>
@@ -10644,7 +10887,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="403" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B403" t="s">
         <v>625</v>
       </c>
@@ -10652,7 +10895,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="404" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B404" t="s">
         <v>339</v>
       </c>
@@ -10660,15 +10903,27 @@
         <v>340</v>
       </c>
     </row>
-    <row r="405" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B405" t="s">
         <v>873</v>
       </c>
       <c r="D405" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="406" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E405" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F405" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G405" t="s">
+        <v>1175</v>
+      </c>
+      <c r="H405" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="406" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B406" t="s">
         <v>341</v>
       </c>
@@ -10676,7 +10931,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="407" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B407" t="s">
         <v>952</v>
       </c>
@@ -10684,7 +10939,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="408" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B408" t="s">
         <v>1118</v>
       </c>
@@ -10692,15 +10947,24 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="409" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B409" t="s">
         <v>886</v>
       </c>
       <c r="D409" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="410" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E409" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F409" t="s">
+        <v>1234</v>
+      </c>
+      <c r="G409" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="410" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B410" t="s">
         <v>705</v>
       </c>
@@ -10711,7 +10975,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="411" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B411" t="s">
         <v>1110</v>
       </c>
@@ -10719,7 +10983,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="412" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B412" t="s">
         <v>694</v>
       </c>
@@ -10727,7 +10991,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="413" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B413" t="s">
         <v>1021</v>
       </c>
@@ -10738,7 +11002,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="414" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B414" t="s">
         <v>1021</v>
       </c>
@@ -10746,7 +11010,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="415" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B415" t="s">
         <v>455</v>
       </c>
@@ -10754,7 +11018,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="416" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B416" t="s">
         <v>1102</v>
       </c>
@@ -10845,13 +11109,13 @@
         <v>350</v>
       </c>
       <c r="F426" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G426" t="s">
+        <v>1184</v>
+      </c>
+      <c r="H426" t="s">
         <v>1185</v>
-      </c>
-      <c r="G426" t="s">
-        <v>1186</v>
-      </c>
-      <c r="H426" t="s">
-        <v>1187</v>
       </c>
     </row>
     <row r="427" spans="2:8" x14ac:dyDescent="0.25">
@@ -10878,13 +11142,13 @@
         <v>291</v>
       </c>
       <c r="F429" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="G429" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="H429" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="430" spans="2:8" x14ac:dyDescent="0.25">
@@ -10943,16 +11207,16 @@
         <v>557</v>
       </c>
       <c r="E436" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F436" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G436" t="s">
         <v>1199</v>
       </c>
-      <c r="F436" t="s">
+      <c r="H436" t="s">
         <v>1200</v>
-      </c>
-      <c r="G436" t="s">
-        <v>1201</v>
-      </c>
-      <c r="H436" t="s">
-        <v>1202</v>
       </c>
     </row>
     <row r="437" spans="2:8" x14ac:dyDescent="0.25">
@@ -10995,10 +11259,10 @@
         <v>278</v>
       </c>
       <c r="F441" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G441" t="s">
         <v>1166</v>
-      </c>
-      <c r="G441" t="s">
-        <v>1167</v>
       </c>
       <c r="H441" t="s">
         <v>1164</v>
@@ -11354,13 +11618,13 @@
         <v>293</v>
       </c>
       <c r="F484" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="G484" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="H484" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="485" spans="2:8" x14ac:dyDescent="0.25">
@@ -11691,10 +11955,10 @@
         <v>323</v>
       </c>
       <c r="F525" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="H525" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="526" spans="2:8" x14ac:dyDescent="0.25">
@@ -11721,13 +11985,13 @@
         <v>444</v>
       </c>
       <c r="F528" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G528" t="s">
+        <v>1188</v>
+      </c>
+      <c r="H528" t="s">
         <v>1189</v>
-      </c>
-      <c r="G528" t="s">
-        <v>1190</v>
-      </c>
-      <c r="H528" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="529" spans="2:4" x14ac:dyDescent="0.25">

--- a/conferences/UbiComp 2016/UbiComp 2016.xlsx
+++ b/conferences/UbiComp 2016/UbiComp 2016.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mark.rucker\My Projects\mr2an\conferences\UbiComp 2016\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\My Projects\mr2an\conferences\UbiComp 2016\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,6 +28,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Mark Rucker</author>
+    <author>Mark</author>
   </authors>
   <commentList>
     <comment ref="B15" authorId="0" shapeId="0">
@@ -295,12 +296,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="B100" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mark:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Possibly interesting but the author's don't seem to share my interest and aren't in America. I wasn't able to find an abstract to *know* I'm interested.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="1238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="1244">
   <si>
     <t>Title</t>
   </si>
@@ -4014,6 +4039,24 @@
   </si>
   <si>
     <t>Mobile Health, UC, Machine Learning</t>
+  </si>
+  <si>
+    <t>Make Abilities Group</t>
+  </si>
+  <si>
+    <t>Environmental Sustainability, Dynamic Surveys, Machine Learning</t>
+  </si>
+  <si>
+    <t>Maurice Falk University Professor</t>
+  </si>
+  <si>
+    <t>Lots, Statistics, Surveys</t>
+  </si>
+  <si>
+    <t>Associate Professor</t>
+  </si>
+  <si>
+    <t>HCI, Usability, Tech Tools for Creating</t>
   </si>
 </sst>
 </file>
@@ -4127,7 +4170,7 @@
     </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="14:00"/>
+        <filter val="16:00"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -4431,7 +4474,7 @@
   <dimension ref="B2:I137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4440,7 +4483,7 @@
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="79.7109375" customWidth="1"/>
-    <col min="6" max="6" width="120.28515625" customWidth="1"/>
+    <col min="6" max="6" width="76.42578125" customWidth="1"/>
     <col min="7" max="7" width="43.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="85.28515625" customWidth="1"/>
@@ -6638,7 +6681,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B97" t="b">
         <v>1</v>
       </c>
@@ -6648,7 +6691,7 @@
       <c r="D97" s="2">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" s="3" t="s">
         <v>221</v>
       </c>
       <c r="F97" t="s">
@@ -6661,9 +6704,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" s="1">
         <v>42629</v>
@@ -6684,7 +6727,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B99" t="b">
         <v>0</v>
       </c>
@@ -6707,9 +6750,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" s="1">
         <v>42629</v>
@@ -6730,7 +6773,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B101" t="b">
         <v>1</v>
       </c>
@@ -6740,7 +6783,7 @@
       <c r="D101" s="2">
         <v>0.58333333333333304</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101" s="3" t="s">
         <v>229</v>
       </c>
       <c r="F101" t="s">
@@ -6753,7 +6796,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B102" t="b">
         <v>1</v>
       </c>
@@ -6776,7 +6819,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B103" t="b">
         <v>0</v>
       </c>
@@ -6799,7 +6842,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B104" t="b">
         <v>0</v>
       </c>
@@ -6822,9 +6865,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" s="1">
         <v>42629</v>
@@ -6845,7 +6888,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B106" t="b">
         <v>0</v>
       </c>
@@ -6868,9 +6911,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107" s="1">
         <v>42629</v>
@@ -6891,7 +6934,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B108" t="b">
         <v>1</v>
       </c>
@@ -6914,9 +6957,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="109" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109" s="1">
         <v>42629</v>
@@ -6937,7 +6980,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="110" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110" t="b">
         <v>0</v>
       </c>
@@ -6960,7 +7003,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="111" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111" t="b">
         <v>0</v>
       </c>
@@ -6983,9 +7026,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="112" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C112" s="1">
         <v>42629</v>
@@ -7006,7 +7049,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="113" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B113" t="b">
         <v>1</v>
       </c>
@@ -7029,7 +7072,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="114" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B114" t="b">
         <v>1</v>
       </c>
@@ -7052,7 +7095,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="115" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B115" t="b">
         <v>0</v>
       </c>
@@ -7075,7 +7118,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="116" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B116" t="b">
         <v>0</v>
       </c>
@@ -7098,7 +7141,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="117" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B117" t="b">
         <v>1</v>
       </c>
@@ -7121,7 +7164,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="118" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B118" t="b">
         <v>1</v>
       </c>
@@ -7144,7 +7187,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="119" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119" t="b">
         <v>1</v>
       </c>
@@ -7167,7 +7210,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="120" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B120" s="2" t="b">
         <v>0</v>
       </c>
@@ -7216,11 +7259,13 @@
     <hyperlink ref="E77" r:id="rId6"/>
     <hyperlink ref="E86" r:id="rId7"/>
     <hyperlink ref="E84" r:id="rId8"/>
+    <hyperlink ref="E101" r:id="rId9"/>
+    <hyperlink ref="E97" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId9"/>
+  <legacyDrawing r:id="rId11"/>
   <tableParts count="1">
-    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7229,8 +7274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I530"/>
   <sheetViews>
-    <sheetView topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="F172" sqref="F172"/>
+    <sheetView topLeftCell="D186" workbookViewId="0">
+      <selection activeCell="G197" sqref="G197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9000,6 +9045,18 @@
       <c r="D197" t="s">
         <v>1023</v>
       </c>
+      <c r="E197" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F197" t="s">
+        <v>1201</v>
+      </c>
+      <c r="G197" t="s">
+        <v>1238</v>
+      </c>
+      <c r="H197" t="s">
+        <v>1243</v>
+      </c>
     </row>
     <row r="198" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
@@ -9375,7 +9432,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
         <v>447</v>
       </c>
@@ -9383,7 +9440,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
         <v>657</v>
       </c>
@@ -9391,7 +9448,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="243" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
         <v>383</v>
       </c>
@@ -9399,7 +9456,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
         <v>937</v>
       </c>
@@ -9407,15 +9464,27 @@
         <v>938</v>
       </c>
     </row>
-    <row r="245" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
         <v>1019</v>
       </c>
       <c r="D245" t="s">
         <v>1020</v>
       </c>
-    </row>
-    <row r="246" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E245" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F245" t="s">
+        <v>1201</v>
+      </c>
+      <c r="G245" t="s">
+        <v>1238</v>
+      </c>
+      <c r="H245" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="246" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
         <v>616</v>
       </c>
@@ -9423,7 +9492,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="247" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
         <v>1041</v>
       </c>
@@ -9431,7 +9500,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="248" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
         <v>743</v>
       </c>
@@ -9439,7 +9508,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="249" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
         <v>652</v>
       </c>
@@ -9447,7 +9516,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
         <v>819</v>
       </c>
@@ -9455,7 +9524,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="251" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
         <v>572</v>
       </c>
@@ -9463,7 +9532,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="252" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
         <v>428</v>
       </c>
@@ -9471,7 +9540,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="253" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
         <v>1145</v>
       </c>
@@ -9479,7 +9548,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="254" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
         <v>656</v>
       </c>
@@ -9487,7 +9556,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="255" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
         <v>581</v>
       </c>
@@ -9498,7 +9567,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="256" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
         <v>581</v>
       </c>
@@ -11000,6 +11069,15 @@
       </c>
       <c r="D413" t="s">
         <v>1022</v>
+      </c>
+      <c r="E413" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F413" t="s">
+        <v>1201</v>
+      </c>
+      <c r="H413" t="s">
+        <v>1241</v>
       </c>
     </row>
     <row r="414" spans="2:8" x14ac:dyDescent="0.25">

--- a/conferences/UbiComp 2016/UbiComp 2016.xlsx
+++ b/conferences/UbiComp 2016/UbiComp 2016.xlsx
@@ -320,12 +320,60 @@
         </r>
       </text>
     </comment>
+    <comment ref="B113" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mark:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+They have connections with UVA!!!</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B114" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mark:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+I'm not sure if I'm interested in the authors. They don't seem fully professionally developed. On the other hand maybe that makes them perfect for me to try and connect with.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="1244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="1252">
   <si>
     <t>Title</t>
   </si>
@@ -4057,6 +4105,30 @@
   </si>
   <si>
     <t>HCI, Usability, Tech Tools for Creating</t>
+  </si>
+  <si>
+    <t>University of California, Merced</t>
+  </si>
+  <si>
+    <t>ANDES Lab</t>
+  </si>
+  <si>
+    <t>University of Michigan</t>
+  </si>
+  <si>
+    <t>She has partnered with UVA CS department for recommender system research</t>
+  </si>
+  <si>
+    <t>HCI Sustainability, HCI Usability</t>
+  </si>
+  <si>
+    <t>Ohio State University</t>
+  </si>
+  <si>
+    <t>Mobile Smart Networking Lab</t>
+  </si>
+  <si>
+    <t>UNIST</t>
   </si>
 </sst>
 </file>
@@ -4163,14 +4235,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:I120" totalsRowShown="0">
   <autoFilter ref="B2:I120">
-    <filterColumn colId="1">
+    <filterColumn colId="0">
       <filters>
-        <dateGroupItem year="2016" month="9" day="16" dateTimeGrouping="day"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="16:00"/>
+        <filter val="TRUE"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -4473,8 +4540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B113" sqref="B113"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4539,7 +4606,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="b">
         <v>1</v>
       </c>
@@ -4864,7 +4931,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="b">
         <v>1</v>
       </c>
@@ -5324,7 +5391,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" t="b">
         <v>1</v>
       </c>
@@ -5395,7 +5462,7 @@
     </row>
     <row r="41" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" s="1">
         <v>42627</v>
@@ -5508,7 +5575,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" t="b">
         <v>1</v>
       </c>
@@ -5531,7 +5598,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" t="b">
         <v>1</v>
       </c>
@@ -5577,7 +5644,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" t="b">
         <v>1</v>
       </c>
@@ -5623,7 +5690,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" t="b">
         <v>1</v>
       </c>
@@ -5669,7 +5736,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" t="b">
         <v>1</v>
       </c>
@@ -5692,7 +5759,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" t="b">
         <v>1</v>
       </c>
@@ -5899,7 +5966,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" t="b">
         <v>1</v>
       </c>
@@ -5922,7 +5989,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" t="b">
         <v>1</v>
       </c>
@@ -6175,7 +6242,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" t="b">
         <v>1</v>
       </c>
@@ -6221,7 +6288,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" t="b">
         <v>1</v>
       </c>
@@ -6382,7 +6449,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="84" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" t="b">
         <v>1</v>
       </c>
@@ -6428,7 +6495,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="86" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" t="b">
         <v>1</v>
       </c>
@@ -6681,7 +6748,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="97" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" t="b">
         <v>1</v>
       </c>
@@ -6773,7 +6840,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="101" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" t="b">
         <v>1</v>
       </c>
@@ -6796,7 +6863,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="102" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" t="b">
         <v>1</v>
       </c>
@@ -6934,7 +7001,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108" t="b">
         <v>1</v>
       </c>
@@ -6957,7 +7024,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B109" t="b">
         <v>0</v>
       </c>
@@ -6980,7 +7047,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B110" t="b">
         <v>0</v>
       </c>
@@ -7003,7 +7070,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B111" t="b">
         <v>0</v>
       </c>
@@ -7026,7 +7093,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B112" t="b">
         <v>0</v>
       </c>
@@ -7072,9 +7139,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C114" s="1">
         <v>42629</v>
@@ -7095,7 +7162,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B115" t="b">
         <v>0</v>
       </c>
@@ -7118,7 +7185,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B116" t="b">
         <v>0</v>
       </c>
@@ -7141,9 +7208,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C117" s="1">
         <v>42629</v>
@@ -7151,7 +7218,7 @@
       <c r="D117" s="2">
         <v>0.66666666666666696</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E117" s="3" t="s">
         <v>261</v>
       </c>
       <c r="F117" t="s">
@@ -7187,9 +7254,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C119" s="1">
         <v>42629</v>
@@ -7210,7 +7277,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B120" s="2" t="b">
         <v>0</v>
       </c>
@@ -7261,11 +7328,12 @@
     <hyperlink ref="E84" r:id="rId8"/>
     <hyperlink ref="E101" r:id="rId9"/>
     <hyperlink ref="E97" r:id="rId10"/>
+    <hyperlink ref="E117" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId11"/>
+  <legacyDrawing r:id="rId12"/>
   <tableParts count="1">
-    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7274,8 +7342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I530"/>
   <sheetViews>
-    <sheetView topLeftCell="D186" workbookViewId="0">
-      <selection activeCell="G197" sqref="G197"/>
+    <sheetView topLeftCell="A242" workbookViewId="0">
+      <selection activeCell="E253" sqref="E253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7425,6 +7493,18 @@
       <c r="D14" t="s">
         <v>1124</v>
       </c>
+      <c r="E14" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1244</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1245</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1175</v>
+      </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -8057,6 +8137,18 @@
       <c r="D84" t="s">
         <v>1123</v>
       </c>
+      <c r="E84" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F84" t="s">
+        <v>1244</v>
+      </c>
+      <c r="G84" t="s">
+        <v>1245</v>
+      </c>
+      <c r="H84" t="s">
+        <v>1175</v>
+      </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
@@ -9149,7 +9241,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
         <v>555</v>
       </c>
@@ -9157,7 +9249,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
         <v>403</v>
       </c>
@@ -9165,7 +9257,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
         <v>410</v>
       </c>
@@ -9173,7 +9265,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
         <v>587</v>
       </c>
@@ -9181,7 +9273,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
         <v>686</v>
       </c>
@@ -9189,7 +9281,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
         <v>507</v>
       </c>
@@ -9197,7 +9289,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
         <v>507</v>
       </c>
@@ -9205,7 +9297,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
         <v>331</v>
       </c>
@@ -9213,15 +9305,21 @@
         <v>332</v>
       </c>
     </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
         <v>1144</v>
       </c>
       <c r="D217" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E217" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F217" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="218" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
         <v>320</v>
       </c>
@@ -9232,7 +9330,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
         <v>335</v>
       </c>
@@ -9240,7 +9338,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
         <v>337</v>
       </c>
@@ -9248,7 +9346,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
         <v>675</v>
       </c>
@@ -9256,7 +9354,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
         <v>1136</v>
       </c>
@@ -9264,7 +9362,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
         <v>546</v>
       </c>
@@ -9272,7 +9370,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
         <v>628</v>
       </c>
@@ -9547,6 +9645,15 @@
       <c r="D253" t="s">
         <v>852</v>
       </c>
+      <c r="E253" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F253" t="s">
+        <v>1251</v>
+      </c>
+      <c r="G253" t="s">
+        <v>1250</v>
+      </c>
     </row>
     <row r="254" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
@@ -10476,6 +10583,18 @@
       </c>
       <c r="D352" t="s">
         <v>323</v>
+      </c>
+      <c r="E352" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F352" t="s">
+        <v>1246</v>
+      </c>
+      <c r="H352" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I352" t="s">
+        <v>1247</v>
       </c>
     </row>
     <row r="353" spans="2:8" x14ac:dyDescent="0.25">

--- a/conferences/UbiComp 2016/UbiComp 2016.xlsx
+++ b/conferences/UbiComp 2016/UbiComp 2016.xlsx
@@ -4540,8 +4540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5759,9 +5759,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" s="1">
         <v>42628</v>
@@ -5966,9 +5966,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" s="1">
         <v>42628</v>
@@ -6288,9 +6288,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77" s="1">
         <v>42628</v>

--- a/conferences/UbiComp 2016/UbiComp 2016.xlsx
+++ b/conferences/UbiComp 2016/UbiComp 2016.xlsx
@@ -373,7 +373,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="1252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="1253">
   <si>
     <t>Title</t>
   </si>
@@ -4129,6 +4129,9 @@
   </si>
   <si>
     <t>UNIST</t>
+  </si>
+  <si>
+    <t>Mental Health, Mobile Sensing</t>
   </si>
 </sst>
 </file>
@@ -4234,13 +4237,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:I120" totalsRowShown="0">
-  <autoFilter ref="B2:I120">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="TRUE"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B2:I120"/>
   <tableColumns count="8">
     <tableColumn id="7" name="Interested" dataDxfId="2"/>
     <tableColumn id="1" name="Date" dataDxfId="1"/>
@@ -4540,8 +4537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="F34" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4582,7 +4579,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="3" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="b">
         <f>FALSE</f>
         <v>0</v>
@@ -4629,7 +4626,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="b">
         <v>0</v>
       </c>
@@ -4652,7 +4649,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" t="b">
         <v>0</v>
       </c>
@@ -4675,7 +4672,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="b">
         <v>0</v>
       </c>
@@ -4698,7 +4695,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="b">
         <v>0</v>
       </c>
@@ -4721,7 +4718,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="b">
         <v>0</v>
       </c>
@@ -4744,7 +4741,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" t="b">
         <v>0</v>
       </c>
@@ -4767,7 +4764,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" t="b">
         <v>0</v>
       </c>
@@ -4790,7 +4787,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" t="b">
         <v>0</v>
       </c>
@@ -4813,7 +4810,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" t="b">
         <v>0</v>
       </c>
@@ -4836,7 +4833,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" t="b">
         <v>0</v>
       </c>
@@ -4859,7 +4856,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" t="b">
         <v>0</v>
       </c>
@@ -4885,7 +4882,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="16" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" t="b">
         <v>0</v>
       </c>
@@ -4908,7 +4905,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="b">
         <v>0</v>
       </c>
@@ -4954,7 +4951,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="b">
         <v>0</v>
       </c>
@@ -4977,7 +4974,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="b">
         <v>0</v>
       </c>
@@ -5000,7 +4997,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="b">
         <v>0</v>
       </c>
@@ -5023,7 +5020,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="b">
         <v>0</v>
       </c>
@@ -5046,7 +5043,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" t="b">
         <v>0</v>
       </c>
@@ -5069,7 +5066,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" t="b">
         <v>0</v>
       </c>
@@ -5092,7 +5089,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" t="b">
         <v>0</v>
       </c>
@@ -5115,7 +5112,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="b">
         <v>0</v>
       </c>
@@ -5138,7 +5135,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" t="b">
         <v>0</v>
       </c>
@@ -5161,7 +5158,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="b">
         <v>0</v>
       </c>
@@ -5184,7 +5181,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" t="b">
         <v>0</v>
       </c>
@@ -5207,7 +5204,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" t="b">
         <v>0</v>
       </c>
@@ -5230,7 +5227,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" t="b">
         <v>0</v>
       </c>
@@ -5253,7 +5250,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" t="b">
         <v>0</v>
       </c>
@@ -5276,7 +5273,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" t="b">
         <v>0</v>
       </c>
@@ -5299,7 +5296,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" t="b">
         <v>0</v>
       </c>
@@ -5322,7 +5319,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" t="b">
         <v>0</v>
       </c>
@@ -5345,7 +5342,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" t="b">
         <v>0</v>
       </c>
@@ -5368,7 +5365,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" t="b">
         <v>0</v>
       </c>
@@ -5414,7 +5411,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" t="b">
         <v>0</v>
       </c>
@@ -5437,7 +5434,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" t="b">
         <v>0</v>
       </c>
@@ -5460,7 +5457,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" t="b">
         <v>0</v>
       </c>
@@ -5483,7 +5480,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" t="b">
         <v>0</v>
       </c>
@@ -5506,7 +5503,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" t="b">
         <v>0</v>
       </c>
@@ -5529,7 +5526,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" t="b">
         <v>0</v>
       </c>
@@ -5552,7 +5549,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" t="b">
         <v>0</v>
       </c>
@@ -5599,9 +5596,6 @@
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" t="b">
-        <v>1</v>
-      </c>
       <c r="C47" s="1">
         <v>42628</v>
       </c>
@@ -5621,7 +5615,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" t="b">
         <v>0</v>
       </c>
@@ -5667,7 +5661,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" t="b">
         <v>0</v>
       </c>
@@ -5713,7 +5707,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" t="b">
         <v>0</v>
       </c>
@@ -5759,7 +5753,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" t="b">
         <v>0</v>
       </c>
@@ -5782,7 +5776,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" t="b">
         <v>0</v>
       </c>
@@ -5805,7 +5799,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" t="b">
         <v>0</v>
       </c>
@@ -5828,7 +5822,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" t="b">
         <v>0</v>
       </c>
@@ -5851,7 +5845,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" t="b">
         <v>0</v>
       </c>
@@ -5874,7 +5868,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" t="b">
         <v>0</v>
       </c>
@@ -5897,7 +5891,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" t="b">
         <v>0</v>
       </c>
@@ -5920,7 +5914,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" t="b">
         <v>0</v>
       </c>
@@ -5943,7 +5937,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" t="b">
         <v>0</v>
       </c>
@@ -5966,7 +5960,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" t="b">
         <v>0</v>
       </c>
@@ -6012,7 +6006,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" t="b">
         <v>0</v>
       </c>
@@ -6035,7 +6029,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="66" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" t="b">
         <v>0</v>
       </c>
@@ -6058,7 +6052,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="67" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" t="b">
         <v>0</v>
       </c>
@@ -6081,7 +6075,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="68" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" t="b">
         <v>0</v>
       </c>
@@ -6104,7 +6098,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" t="b">
         <v>0</v>
       </c>
@@ -6127,7 +6121,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="70" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" t="b">
         <v>0</v>
       </c>
@@ -6150,7 +6144,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="71" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" t="b">
         <v>0</v>
       </c>
@@ -6173,7 +6167,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="72" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" t="b">
         <v>0</v>
       </c>
@@ -6196,7 +6190,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="73" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" t="b">
         <v>0</v>
       </c>
@@ -6219,7 +6213,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="74" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" t="b">
         <v>0</v>
       </c>
@@ -6265,7 +6259,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="76" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" t="b">
         <v>0</v>
       </c>
@@ -6288,7 +6282,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" t="b">
         <v>0</v>
       </c>
@@ -6311,7 +6305,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" t="b">
         <v>0</v>
       </c>
@@ -6334,7 +6328,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="79" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" t="b">
         <v>0</v>
       </c>
@@ -6357,7 +6351,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="80" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" t="b">
         <v>0</v>
       </c>
@@ -6380,7 +6374,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="81" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" t="b">
         <v>0</v>
       </c>
@@ -6403,7 +6397,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="82" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" t="b">
         <v>0</v>
       </c>
@@ -6426,7 +6420,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="83" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" t="b">
         <v>0</v>
       </c>
@@ -6472,7 +6466,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="85" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85" t="b">
         <v>0</v>
       </c>
@@ -6518,7 +6512,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="87" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" t="b">
         <v>0</v>
       </c>
@@ -6541,7 +6535,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="88" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" t="b">
         <v>0</v>
       </c>
@@ -6564,7 +6558,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="89" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" t="b">
         <v>0</v>
       </c>
@@ -6587,7 +6581,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="90" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" t="b">
         <v>0</v>
       </c>
@@ -6610,7 +6604,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="91" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" t="b">
         <v>0</v>
       </c>
@@ -6633,7 +6627,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="92" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92" t="b">
         <v>0</v>
       </c>
@@ -6656,7 +6650,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="93" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" t="b">
         <v>0</v>
       </c>
@@ -6679,7 +6673,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="94" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94" t="b">
         <v>0</v>
       </c>
@@ -6702,7 +6696,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="95" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" t="b">
         <v>0</v>
       </c>
@@ -6725,7 +6719,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="96" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96" t="b">
         <v>0</v>
       </c>
@@ -6771,7 +6765,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="98" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" t="b">
         <v>0</v>
       </c>
@@ -6794,7 +6788,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="99" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" t="b">
         <v>0</v>
       </c>
@@ -6817,7 +6811,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="100" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" t="b">
         <v>0</v>
       </c>
@@ -6886,7 +6880,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="103" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" t="b">
         <v>0</v>
       </c>
@@ -6909,7 +6903,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="104" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104" t="b">
         <v>0</v>
       </c>
@@ -6932,7 +6926,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="105" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105" t="b">
         <v>0</v>
       </c>
@@ -6955,7 +6949,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="106" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" t="b">
         <v>0</v>
       </c>
@@ -6978,7 +6972,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="107" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" t="b">
         <v>0</v>
       </c>
@@ -7024,7 +7018,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="109" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B109" t="b">
         <v>0</v>
       </c>
@@ -7047,7 +7041,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="110" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110" t="b">
         <v>0</v>
       </c>
@@ -7070,7 +7064,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="111" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111" t="b">
         <v>0</v>
       </c>
@@ -7093,7 +7087,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="112" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" t="b">
         <v>0</v>
       </c>
@@ -7139,7 +7133,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="114" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B114" t="b">
         <v>0</v>
       </c>
@@ -7162,7 +7156,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="115" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B115" t="b">
         <v>0</v>
       </c>
@@ -7185,7 +7179,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="116" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B116" t="b">
         <v>0</v>
       </c>
@@ -7208,7 +7202,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="117" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B117" t="b">
         <v>0</v>
       </c>
@@ -7254,7 +7248,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="119" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119" t="b">
         <v>0</v>
       </c>
@@ -7277,7 +7271,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="120" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B120" s="2" t="b">
         <v>0</v>
       </c>
@@ -7342,8 +7336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I530"/>
   <sheetViews>
-    <sheetView topLeftCell="A242" workbookViewId="0">
-      <selection activeCell="E253" sqref="E253"/>
+    <sheetView topLeftCell="A416" workbookViewId="0">
+      <selection activeCell="E428" sqref="E428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11330,6 +11324,18 @@
       <c r="D428" t="s">
         <v>424</v>
       </c>
+      <c r="E428" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F428" t="s">
+        <v>1190</v>
+      </c>
+      <c r="G428" t="s">
+        <v>1217</v>
+      </c>
+      <c r="H428" t="s">
+        <v>1252</v>
+      </c>
     </row>
     <row r="429" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B429" t="s">
